--- a/results/approved_voters=300_projects=15.xlsx
+++ b/results/approved_voters=300_projects=15.xlsx
@@ -522,13 +522,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -537,22 +537,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -607,13 +607,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -622,22 +622,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -657,16 +657,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -807,16 +807,16 @@
         <v>21</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -828,28 +828,28 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -866,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -957,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -977,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -992,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1042,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1092,22 +1092,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1192,22 +1192,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1242,22 +1242,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>

--- a/results/approved_voters=300_projects=15.xlsx
+++ b/results/approved_voters=300_projects=15.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>project6</t>
-  </si>
-  <si>
-    <t>project7</t>
-  </si>
-  <si>
-    <t>project8</t>
-  </si>
-  <si>
-    <t>project9</t>
-  </si>
-  <si>
-    <t>project10</t>
-  </si>
-  <si>
-    <t>project11</t>
-  </si>
-  <si>
-    <t>project12</t>
-  </si>
-  <si>
-    <t>project13</t>
-  </si>
-  <si>
-    <t>project14</t>
-  </si>
-  <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>utility sum</t>
-  </si>
-  <si>
-    <t>utility ratio</t>
-  </si>
-  <si>
-    <t>utility product</t>
-  </si>
-  <si>
-    <t>cumulative sum</t>
-  </si>
-  <si>
-    <t>cumulative ratio</t>
-  </si>
-  <si>
-    <t>cumulative product</t>
-  </si>
-  <si>
-    <t>knapsack</t>
-  </si>
-  <si>
-    <t>knapsack ratio</t>
-  </si>
-  <si>
-    <t>default borda</t>
-  </si>
-  <si>
-    <t>default borda truncated</t>
-  </si>
-  <si>
-    <t>dowdall system borda</t>
-  </si>
-  <si>
-    <t>dowdall system borda truncated</t>
-  </si>
-  <si>
-    <t>eurovision song contest borda</t>
-  </si>
-  <si>
-    <t>eurovision song contest borda truncated</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,69 +421,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>project6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>project7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>project8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>project9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>project10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>project11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>project12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>project13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>project14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>approval</t>
+        </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -537,16 +533,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -558,21 +554,23 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -590,27 +588,34 @@
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>utility sum</t>
+        </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -622,16 +627,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -643,24 +648,26 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>utility ratio</t>
+        </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -675,92 +682,96 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>utility product</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>cumulative sum</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -772,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -793,24 +804,26 @@
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>cumulative ratio</t>
+        </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -825,36 +838,38 @@
         <v>1</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>cumulative product</t>
+        </is>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -872,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -893,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -902,9 +917,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>knapsack</t>
+        </is>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -936,10 +953,17 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>knapsack ratio</t>
+        </is>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -960,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -971,16 +995,23 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>default borda</t>
+        </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -992,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1013,39 +1044,41 @@
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>default borda truncated</t>
+        </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1054,48 +1087,50 @@
         <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>dowdall system borda</t>
+        </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1104,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1113,39 +1148,41 @@
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>dowdall system borda truncated</t>
+        </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1154,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1169,18 +1206,20 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>eurovision song contest borda</t>
+        </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1192,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1213,39 +1252,41 @@
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>eurovision song contest borda truncated</t>
+        </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1254,25 +1295,25 @@
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/results/approved_voters=300_projects=15.xlsx
+++ b/results/approved_voters=300_projects=15.xlsx
@@ -527,40 +527,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -621,40 +621,40 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -725,40 +725,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -777,40 +777,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -823,46 +823,46 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1017,40 +1017,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1078,31 +1078,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1182,31 +1182,31 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1225,40 +1225,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/approved_voters=300_projects=15.xlsx
+++ b/results/approved_voters=300_projects=15.xlsx
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -537,34 +537,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -657,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -684,22 +684,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,19 +716,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -834,22 +834,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -872,13 +872,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1027,13 +1027,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1045,31 +1045,31 @@
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1077,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1095,31 +1095,31 @@
         <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1127,13 +1127,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1145,31 +1145,31 @@
         <v>1</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1183,19 +1183,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1227,13 +1227,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1245,31 +1245,31 @@
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/approved_voters=300_projects=15.xlsx
+++ b/results/approved_voters=300_projects=15.xlsx
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1126,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
